--- a/populationInfo/OriginalMetadata/vcf_popinfo_Oct2018.xlsx
+++ b/populationInfo/OriginalMetadata/vcf_popinfo_Oct2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DEST/populationInfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DEST_freeze1/populationInfo/OriginalMetadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0251573-F377-FF44-95DB-80D6C1C69B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5375CA6A-1394-3A46-BF09-CD25664FAEAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popinfo.txt" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">popinfo.txt!$H$2:$H$77</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">popinfo.txt!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="466">
   <si>
     <t>mel159_112012_CO</t>
   </si>
@@ -1421,6 +1415,21 @@
   </si>
   <si>
     <t>mel14TWA7</t>
+  </si>
+  <si>
+    <t>sampleType</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>inbred</t>
+  </si>
+  <si>
+    <t>5gen_lab</t>
   </si>
 </sst>
 </file>
@@ -2306,13 +2315,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB78"/>
+  <dimension ref="A1:AC78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2330,10 +2339,11 @@
     <col min="21" max="21" width="24.6640625" style="1" customWidth="1"/>
     <col min="22" max="25" width="10.83203125" style="1" customWidth="1"/>
     <col min="26" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="28" max="28" width="10.83203125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>166</v>
       </c>
@@ -2418,8 +2428,11 @@
       <c r="AB1" s="5" t="s">
         <v>316</v>
       </c>
+      <c r="AC1" s="5" t="s">
+        <v>461</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
@@ -2504,8 +2517,11 @@
       <c r="AB2" s="1" t="s">
         <v>384</v>
       </c>
+      <c r="AC2" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>312</v>
       </c>
@@ -2590,8 +2606,11 @@
       <c r="AB3" s="10" t="s">
         <v>434</v>
       </c>
+      <c r="AC3" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>263</v>
       </c>
@@ -2676,8 +2695,11 @@
       <c r="AB4" s="1" t="s">
         <v>388</v>
       </c>
+      <c r="AC4" s="1" t="s">
+        <v>464</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
@@ -2762,8 +2784,11 @@
       <c r="AB5" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="AC5" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>429</v>
       </c>
@@ -2848,8 +2873,11 @@
       <c r="AB6" s="1" t="s">
         <v>385</v>
       </c>
+      <c r="AC6" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>430</v>
       </c>
@@ -2934,8 +2962,11 @@
       <c r="AB7" s="1" t="s">
         <v>385</v>
       </c>
+      <c r="AC7" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>243</v>
       </c>
@@ -3020,8 +3051,11 @@
       <c r="AB8" s="1" t="s">
         <v>378</v>
       </c>
+      <c r="AC8" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>244</v>
       </c>
@@ -3106,8 +3140,11 @@
       <c r="AB9" s="1" t="s">
         <v>380</v>
       </c>
+      <c r="AC9" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>245</v>
       </c>
@@ -3192,8 +3229,11 @@
       <c r="AB10" s="1" t="s">
         <v>381</v>
       </c>
+      <c r="AC10" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>246</v>
       </c>
@@ -3278,8 +3318,11 @@
       <c r="AB11" s="1" t="s">
         <v>383</v>
       </c>
+      <c r="AC11" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>236</v>
       </c>
@@ -3364,8 +3407,11 @@
       <c r="AB12" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="AC12" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>431</v>
       </c>
@@ -3450,8 +3496,11 @@
       <c r="AB13" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="AC13" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>232</v>
       </c>
@@ -3536,8 +3585,11 @@
       <c r="AB14" s="1" t="s">
         <v>386</v>
       </c>
+      <c r="AC14" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
@@ -3622,8 +3674,11 @@
       <c r="AB15" s="1" t="s">
         <v>379</v>
       </c>
+      <c r="AC15" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
@@ -3708,8 +3763,11 @@
       <c r="AB16" s="1" t="s">
         <v>382</v>
       </c>
+      <c r="AC16" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -3794,8 +3852,11 @@
       <c r="AB17" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="AC17" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
@@ -3880,8 +3941,11 @@
       <c r="AB18" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="AC18" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>259</v>
       </c>
@@ -3966,8 +4030,11 @@
       <c r="AB19" s="1" t="s">
         <v>360</v>
       </c>
+      <c r="AC19" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>267</v>
       </c>
@@ -4052,8 +4119,11 @@
       <c r="AB20" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="AC20" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>274</v>
       </c>
@@ -4138,8 +4208,11 @@
       <c r="AB21" s="1" t="s">
         <v>358</v>
       </c>
+      <c r="AC21" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>268</v>
       </c>
@@ -4224,8 +4297,11 @@
       <c r="AB22" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="AC22" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>275</v>
       </c>
@@ -4310,8 +4386,11 @@
       <c r="AB23" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="AC23" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>260</v>
       </c>
@@ -4396,8 +4475,11 @@
       <c r="AB24" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="AC24" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>229</v>
       </c>
@@ -4482,8 +4564,11 @@
       <c r="AB25" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="AC25" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>214</v>
       </c>
@@ -4568,8 +4653,11 @@
       <c r="AB26" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="AC26" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>215</v>
       </c>
@@ -4654,8 +4742,11 @@
       <c r="AB27" s="1" t="s">
         <v>375</v>
       </c>
+      <c r="AC27" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>239</v>
       </c>
@@ -4740,8 +4831,11 @@
       <c r="AB28" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="AC28" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>240</v>
       </c>
@@ -4826,8 +4920,11 @@
       <c r="AB29" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="AC29" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
@@ -4912,8 +5009,11 @@
       <c r="AB30" s="1" t="s">
         <v>370</v>
       </c>
+      <c r="AC30" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>238</v>
       </c>
@@ -4998,8 +5098,11 @@
       <c r="AB31" s="1" t="s">
         <v>371</v>
       </c>
+      <c r="AC31" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -5084,8 +5187,11 @@
       <c r="AB32" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="AC32" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>424</v>
       </c>
@@ -5170,8 +5276,11 @@
       <c r="AB33" s="1" t="s">
         <v>367</v>
       </c>
+      <c r="AC33" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -5256,8 +5365,11 @@
       <c r="AB34" s="1" t="s">
         <v>366</v>
       </c>
+      <c r="AC34" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>426</v>
       </c>
@@ -5339,8 +5451,11 @@
       <c r="AA35" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="AC35" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>233</v>
       </c>
@@ -5425,8 +5540,11 @@
       <c r="AB36" s="1" t="s">
         <v>364</v>
       </c>
+      <c r="AC36" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="37" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>234</v>
       </c>
@@ -5511,8 +5629,11 @@
       <c r="AB37" s="1" t="s">
         <v>365</v>
       </c>
+      <c r="AC37" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="38" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>220</v>
       </c>
@@ -5597,8 +5718,11 @@
       <c r="AB38" s="1" t="s">
         <v>362</v>
       </c>
+      <c r="AC38" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="39" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>221</v>
       </c>
@@ -5683,8 +5807,11 @@
       <c r="AB39" s="1" t="s">
         <v>368</v>
       </c>
+      <c r="AC39" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="40" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>222</v>
       </c>
@@ -5769,8 +5896,11 @@
       <c r="AB40" s="1" t="s">
         <v>363</v>
       </c>
+      <c r="AC40" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>223</v>
       </c>
@@ -5855,8 +5985,11 @@
       <c r="AB41" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="AC41" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="42" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>224</v>
       </c>
@@ -5941,8 +6074,11 @@
       <c r="AB42" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="AC42" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="43" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>252</v>
       </c>
@@ -6027,8 +6163,11 @@
       <c r="AB43" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="AC43" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="44" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>257</v>
       </c>
@@ -6113,8 +6252,11 @@
       <c r="AB44" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="AC44" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="45" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>258</v>
       </c>
@@ -6199,8 +6341,11 @@
       <c r="AB45" s="1" t="s">
         <v>342</v>
       </c>
+      <c r="AC45" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="46" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>230</v>
       </c>
@@ -6285,8 +6430,11 @@
       <c r="AB46" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="AC46" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="47" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>276</v>
       </c>
@@ -6371,8 +6519,11 @@
       <c r="AB47" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="AC47" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="48" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>261</v>
       </c>
@@ -6457,8 +6608,11 @@
       <c r="AB48" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="AC48" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="49" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>277</v>
       </c>
@@ -6543,8 +6697,11 @@
       <c r="AB49" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="AC49" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="50" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>269</v>
       </c>
@@ -6629,8 +6786,11 @@
       <c r="AB50" s="1" t="s">
         <v>349</v>
       </c>
+      <c r="AC50" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="51" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>231</v>
       </c>
@@ -6715,8 +6875,11 @@
       <c r="AB51" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="AC51" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="52" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>278</v>
       </c>
@@ -6801,8 +6964,11 @@
       <c r="AB52" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="AC52" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="53" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>262</v>
       </c>
@@ -6887,8 +7053,11 @@
       <c r="AB53" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="AC53" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="54" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>212</v>
       </c>
@@ -6973,8 +7142,11 @@
       <c r="AB54" s="1" t="s">
         <v>341</v>
       </c>
+      <c r="AC54" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="55" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>213</v>
       </c>
@@ -7059,8 +7231,11 @@
       <c r="AB55" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="AC55" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="56" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>177</v>
       </c>
@@ -7145,8 +7320,11 @@
       <c r="AB56" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="AC56" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="57" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -7231,8 +7409,11 @@
       <c r="AB57" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="AC57" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="58" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>216</v>
       </c>
@@ -7317,8 +7498,11 @@
       <c r="AB58" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="AC58" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="59" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>217</v>
       </c>
@@ -7403,8 +7587,11 @@
       <c r="AB59" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="AC59" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="60" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>225</v>
       </c>
@@ -7489,8 +7676,11 @@
       <c r="AB60" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="AC60" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="61" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>226</v>
       </c>
@@ -7575,8 +7765,11 @@
       <c r="AB61" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="AC61" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="62" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>241</v>
       </c>
@@ -7661,8 +7854,11 @@
       <c r="AB62" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="AC62" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="63" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>242</v>
       </c>
@@ -7747,8 +7943,11 @@
       <c r="AB63" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="AC63" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>253</v>
       </c>
@@ -7833,8 +8032,11 @@
       <c r="AB64" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="AC64" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>254</v>
       </c>
@@ -7919,8 +8121,11 @@
       <c r="AB65" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="AC65" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>264</v>
       </c>
@@ -8005,8 +8210,11 @@
       <c r="AB66" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="AC66" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>265</v>
       </c>
@@ -8091,8 +8299,11 @@
       <c r="AB67" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="AC67" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>272</v>
       </c>
@@ -8177,8 +8388,11 @@
       <c r="AB68" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="AC68" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>273</v>
       </c>
@@ -8263,8 +8477,11 @@
       <c r="AB69" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="AC69" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>218</v>
       </c>
@@ -8349,8 +8566,11 @@
       <c r="AB70" s="1" t="s">
         <v>327</v>
       </c>
+      <c r="AC70" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -8435,8 +8655,11 @@
       <c r="AB71" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="AC71" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>255</v>
       </c>
@@ -8521,8 +8744,11 @@
       <c r="AB72" s="1" t="s">
         <v>318</v>
       </c>
+      <c r="AC72" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>256</v>
       </c>
@@ -8607,8 +8833,11 @@
       <c r="AB73" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="AC73" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="74" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>266</v>
       </c>
@@ -8693,8 +8922,11 @@
       <c r="AB74" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="AC74" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="75" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>270</v>
       </c>
@@ -8779,8 +9011,11 @@
       <c r="AB75" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="AC75" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="76" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>271</v>
       </c>
@@ -8865,8 +9100,11 @@
       <c r="AB76" s="1" t="s">
         <v>323</v>
       </c>
+      <c r="AC76" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="77" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>279</v>
       </c>
@@ -8951,8 +9189,11 @@
       <c r="AB77" s="1" t="s">
         <v>322</v>
       </c>
+      <c r="AC77" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="78" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>251</v>
       </c>
@@ -9036,6 +9277,9 @@
       </c>
       <c r="AB78" s="10" t="s">
         <v>435</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
